--- a/docs/icare/obf-datatype-BodyLocation-extension.xlsx
+++ b/docs/icare/obf-datatype-BodyLocation-extension.xlsx
@@ -201,7 +201,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-Code-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Code-extension}
 </t>
   </si>
   <si>
@@ -230,7 +230,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
   </si>
   <si>
-    <t>http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-Code-extension</t>
+    <t>http://icaredata.org/icare/StructureDefinition/obf-datatype-Code-extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -261,7 +261,7 @@
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-Laterality-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Laterality-extension}
 </t>
   </si>
   <si>
@@ -278,7 +278,7 @@
     <t>anatomicalorientation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-AnatomicalOrientation-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-AnatomicalOrientation-extension}
 </t>
   </si>
   <si>
@@ -295,7 +295,7 @@
     <t>relationtolandmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-RelationToLandmark-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-RelationToLandmark-extension}
 </t>
   </si>
   <si>
@@ -312,7 +312,7 @@
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-BodyLocation-extension</t>
+    <t>http://icaredata.org/icare/StructureDefinition/obf-datatype-BodyLocation-extension</t>
   </si>
   <si>
     <t>boolean

--- a/docs/icare/obf-datatype-BodyLocation-extension.xlsx
+++ b/docs/icare/obf-datatype-BodyLocation-extension.xlsx
@@ -201,7 +201,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Code-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-Code-extension}
 </t>
   </si>
   <si>
@@ -230,7 +230,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
   </si>
   <si>
-    <t>http://icaredata.org/icare/StructureDefinition/obf-datatype-Code-extension</t>
+    <t>http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-Code-extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -261,7 +261,7 @@
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Laterality-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-Laterality-extension}
 </t>
   </si>
   <si>
@@ -278,7 +278,7 @@
     <t>anatomicalorientation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-AnatomicalOrientation-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-AnatomicalOrientation-extension}
 </t>
   </si>
   <si>
@@ -295,7 +295,7 @@
     <t>relationtolandmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-RelationToLandmark-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-RelationToLandmark-extension}
 </t>
   </si>
   <si>
@@ -312,7 +312,7 @@
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>http://icaredata.org/icare/StructureDefinition/obf-datatype-BodyLocation-extension</t>
+    <t>http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-BodyLocation-extension</t>
   </si>
   <si>
     <t>boolean
